--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H100_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type2/pd_results_W15_H100_B32.xlsx
@@ -502,23 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5508982035928144</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+        <v>0.5483870967741935</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.4166666666666667</v>
+      </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9239130434782609</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5508982035928144</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7104247104247104</v>
+        <v>0.6882591093117409</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5479041916167665</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.07325948179153642</v>
+        <v>0.05233983729280972</v>
       </c>
       <c r="J2" t="n">
-        <v>944.6954528150214</v>
+        <v>637.9516157015065</v>
       </c>
       <c r="K2" t="n">
-        <v>1233888.089653773</v>
+        <v>556879.4293821977</v>
       </c>
       <c r="L2" t="n">
-        <v>1110.805153775302</v>
+        <v>746.2435456218014</v>
       </c>
       <c r="M2" t="n">
-        <v>0.771191335709884</v>
+        <v>0.8967338776701085</v>
       </c>
     </row>
   </sheetData>
